--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C264671-F3D8-4D6A-868B-922E98F72F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB7A3AB-6114-432A-A4F1-DF6CA92E2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -128,153 +128,6 @@
   </si>
   <si>
     <t>30.08.2024  au 01.11.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création des user et technical stories </t>
-  </si>
-  <si>
-    <t>Recherche du type de donnée (Voir technical Stories)</t>
-  </si>
-  <si>
-    <t>Explication projet par M.Carrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction par M.Carel + remplissage de la courde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily scrum  (revue CDC + US iceScrum) </t>
-  </si>
-  <si>
-    <t>Création d'un graphe (essaie non réussis pour cause de temps car temps perdu pour trouver la librairie nécéssaire)</t>
-  </si>
-  <si>
-    <t>Création du premier graph grâce a ScottPlot (Petit problème rencontrer à cause d'un manque d'appelle dans une fonction)</t>
-  </si>
-  <si>
-    <t>Création de deux nouvelle storie sur iceScrum (Conversion date en jour de la semaine + Graphe à multiple ligne)</t>
-  </si>
-  <si>
-    <t>Création d'une méthode qui convertis une date en jour de la semaine</t>
-  </si>
-  <si>
-    <t>Tentative d'afficher un string sur l'axe x avec Scottplot</t>
-  </si>
-  <si>
-    <t>Tentative d'afficher un string sur l'axe x avec Scottplot réussi (problème rencontrer du a un changement dans la version de la libraire ayant changer le nom de certaine methode beaucoup de recherche ont du être faites)</t>
-  </si>
-  <si>
-    <t>Refactorisation du tableau "nbPoint" en liste (factorisation nécessitant l'ajout d'une methode pour passer les valeur de la liste dans un tableau pour l'affichage du graph)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactorisation du code du graphe afin qu'il puisse afficher plusieur équipes </t>
-  </si>
-  <si>
-    <t>Création de la classe team et refactorisation du code afin qu'il utilise la liste des score de la classe team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appel a une api oke </t>
-  </si>
-  <si>
-    <t>Absence</t>
-  </si>
-  <si>
-    <t>Discussion avec le prof sur l'evolution du métier</t>
-  </si>
-  <si>
-    <t>Ajout d'un fichier CSV contenant les données des équipes</t>
-  </si>
-  <si>
-    <t>Ajout de la methode getAllTeams qui permet de récupéer toutes les équipe de la nba en lisant le fichier CSV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout de la methode getTeamsStats qui permet de récupérer pour chaque équipe NBA leur statistique pour la saison </t>
-  </si>
-  <si>
-    <t>Essaie de conversion de la date en string du CSV en format numéros du jour de la semaine ()</t>
-  </si>
-  <si>
-    <t>Récupération dans une liste d'équipe l'équipe ainsi que son score et le jour du match</t>
-  </si>
-  <si>
-    <t>M.Carrel nous a donné des feedback sur l'avancé des projets (Besoin d'avancer sur la documentation)</t>
-  </si>
-  <si>
-    <t>Fix de la méthode GetTeamStructure (Bug: La séléction des données était éronnée et attribuait le score de l'équipe à domicil si l'équipe jouait à l'extérieur)</t>
-  </si>
-  <si>
-    <t>Feat: Affichage des ligne pour chaque équipe sur le graphe</t>
-  </si>
-  <si>
-    <t>Création US</t>
-  </si>
-  <si>
-    <t>Mise à jour VS</t>
-  </si>
-  <si>
-    <t>Tentative de rendre les legendes cliquable (Non réussite)</t>
-  </si>
-  <si>
-    <t>Feat: Mise en place du filtre par équipe</t>
-  </si>
-  <si>
-    <t>Revue du test pratique avec le prof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revue/correction des user stories </t>
-  </si>
-  <si>
-    <t>Le prof nous a présenter IceTools</t>
-  </si>
-  <si>
-    <t>Ecriture de l'introduction de l'analyse prélininaire du rapport</t>
-  </si>
-  <si>
-    <t>Ecriture de la partie objectif de l'analyse préliminaire</t>
-  </si>
-  <si>
-    <t>Ecriture de la partie gestion de l'analyse préliminaire</t>
-  </si>
-  <si>
-    <t>Pause</t>
-  </si>
-  <si>
-    <t>Ecriture de la partie domaine de l'analyse/conception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refactore: (Graph.cs) changement de la methode button_click() afin de simplement désafficher les scatters plutôt que de les supprimer </t>
-  </si>
-  <si>
-    <t>Refactore: (Form1 conception) création du graph dans la conception du form plutôt que le créer dans le code</t>
-  </si>
-  <si>
-    <t>Refactore: (Graph.cs) Mise en place du flowLayoutPanel dans la conception</t>
-  </si>
-  <si>
-    <t>Doc: (DataSelection.cs) Ajout des commentaires dans la classe DataSelection.cs</t>
-  </si>
-  <si>
-    <t>Refcatore: (Graph.cs) Remplacement des bouton représentant les équipes pour les filtres par des checkBox</t>
-  </si>
-  <si>
-    <t>Chore: (Graph.cs) Ajout des commentaires dans la classe</t>
-  </si>
-  <si>
-    <t>refactore: (Graph.cs) remplacement des tableaux de jour par une liste de tuple (numéros jour de la semaine,  nom du jour)</t>
-  </si>
-  <si>
-    <t>Tentative ajout filtre avec jour</t>
-  </si>
-  <si>
-    <t>Feat: (Graph.cs) ajout des filtre par jour</t>
-  </si>
-  <si>
-    <t>Refactor: (Graph.cs) déplacement de la methode CreateDisableAllTeamsCheckBox(); afin de la mettre dans le constructor</t>
-  </si>
-  <si>
-    <t>Fix: (Graph.cs) re création des checkbox d'équipe a chaque filtre par jour</t>
-  </si>
-  <si>
-    <t>Feat: (Graph.cs) changement du type de ligne en bar si l'utilisateur n'affiche qu'un seul jour</t>
   </si>
 </sst>
 </file>
@@ -1206,19 +1059,19 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73263888888888884</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5972222222222224E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1227,7 +1080,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9444444444444448E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,8 +1992,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2193,7 +2046,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 3 heurs 35 minutes</v>
+        <v>0 jours 0 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2208,15 +2061,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>840</v>
+        <v>0</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2251,43 +2104,27 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A7" s="14">
+      <c r="A7" s="14" t="str">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
-        <v>35</v>
-      </c>
-      <c r="B7" s="43">
-        <v>45534</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="45">
-        <v>15</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A8" s="8">
+      <c r="A8" s="8" t="str">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
-        <v>35</v>
-      </c>
-      <c r="B8" s="47">
-        <v>45534</v>
-      </c>
-      <c r="C8" s="48">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="49"/>
-      <c r="E8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>30</v>
-      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="16"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -2300,25 +2137,15 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A9" s="17">
+      <c r="A9" s="17" t="str">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v>35</v>
-      </c>
-      <c r="B9" s="51">
-        <v>45534</v>
-      </c>
-      <c r="C9" s="52">
-        <v>1</v>
-      </c>
-      <c r="D9" s="53">
-        <v>30</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="18"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -2330,24 +2157,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="8">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A10" s="8" t="str">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v>35</v>
-      </c>
-      <c r="B10" s="47">
-        <v>45534</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B10" s="47"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="49">
-        <v>10</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>34</v>
-      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -2360,23 +2179,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A11" s="17">
+      <c r="A11" s="17" t="str">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v>36</v>
-      </c>
-      <c r="B11" s="51">
-        <v>45541</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B11" s="51"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="53">
-        <v>15</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>32</v>
-      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2389,23 +2200,15 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A12" s="8">
+      <c r="A12" s="8" t="str">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v>36</v>
-      </c>
-      <c r="B12" s="47">
-        <v>45541</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="49">
-        <v>5</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>33</v>
-      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2417,24 +2220,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="17">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A13" s="17" t="str">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v>36</v>
-      </c>
-      <c r="B13" s="51">
-        <v>45541</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B13" s="51"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="53">
-        <v>50</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2446,24 +2241,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="8">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A14" s="8" t="str">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v>36</v>
-      </c>
-      <c r="B14" s="47">
-        <v>45541</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B14" s="47"/>
       <c r="C14" s="48"/>
-      <c r="D14" s="49">
-        <v>15</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -2476,23 +2263,15 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A15" s="17">
+      <c r="A15" s="17" t="str">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v>36</v>
-      </c>
-      <c r="B15" s="51">
-        <v>45541</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B15" s="51"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="53">
-        <v>15</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>37</v>
-      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2505,817 +2284,495 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A16" s="8">
+      <c r="A16" s="8" t="str">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v>36</v>
-      </c>
-      <c r="B16" s="47">
-        <v>45541</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="49">
-        <v>20</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>38</v>
-      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A17" s="17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A17" s="17" t="str">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v>37</v>
-      </c>
-      <c r="B17" s="51">
-        <v>45548</v>
-      </c>
-      <c r="C17" s="52">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="53"/>
-      <c r="E17" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>39</v>
-      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="18"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="8">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A18" s="8" t="str">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v>37</v>
-      </c>
-      <c r="B18" s="47">
-        <v>45548</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B18" s="47"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="49">
-        <v>15</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>40</v>
-      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="16"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="17">
+      <c r="A19" s="17" t="str">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v>37</v>
-      </c>
-      <c r="B19" s="51">
-        <v>45548</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B19" s="51"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="53">
-        <v>30</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>41</v>
-      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="18"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="8">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A20" s="8" t="str">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v>37</v>
-      </c>
-      <c r="B20" s="47">
-        <v>45548</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B20" s="47"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="49">
-        <v>10</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>42</v>
-      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="17">
+      <c r="A21" s="17" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v>37</v>
-      </c>
-      <c r="B21" s="51">
-        <v>45548</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B21" s="51"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="53">
-        <v>40</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>43</v>
-      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="8">
+      <c r="A22" s="8" t="str">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v>38</v>
-      </c>
-      <c r="B22" s="47">
-        <v>45555</v>
-      </c>
-      <c r="C22" s="48">
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="49"/>
-      <c r="E22" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="17">
+      <c r="A23" s="17" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v>39</v>
-      </c>
-      <c r="B23" s="51">
-        <v>45562</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B23" s="51"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="53">
-        <v>10</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>45</v>
-      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="8">
+      <c r="A24" s="8" t="str">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v>39</v>
-      </c>
-      <c r="B24" s="47">
-        <v>45562</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B24" s="47"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="49">
-        <v>35</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>46</v>
-      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A25" s="17">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A25" s="17" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v>39</v>
-      </c>
-      <c r="B25" s="51">
-        <v>45562</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B25" s="51"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="53">
-        <v>40</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>47</v>
-      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A26" s="8">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v>39</v>
-      </c>
-      <c r="B26" s="47">
-        <v>45562</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B26" s="47"/>
       <c r="C26" s="48"/>
-      <c r="D26" s="49">
-        <v>35</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>48</v>
-      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="17">
+      <c r="A27" s="17" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v>39</v>
-      </c>
-      <c r="B27" s="51">
-        <v>45562</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B27" s="51"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="53">
-        <v>40</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>49</v>
-      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="8">
+      <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v>40</v>
-      </c>
-      <c r="B28" s="47">
-        <v>45568</v>
-      </c>
-      <c r="C28" s="48">
-        <v>1</v>
-      </c>
-      <c r="D28" s="49">
-        <v>15</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>50</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="17">
+      <c r="A29" s="17" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v>40</v>
-      </c>
-      <c r="B29" s="51">
-        <v>45569</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B29" s="51"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="53">
-        <v>15</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A30" s="8">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v>40</v>
-      </c>
-      <c r="B30" s="47">
-        <v>45569</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B30" s="47"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="49">
-        <v>10</v>
-      </c>
-      <c r="E30" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="17">
+      <c r="A31" s="17" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v>40</v>
-      </c>
-      <c r="B31" s="51">
-        <v>45569</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B31" s="51"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="53">
-        <v>50</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>53</v>
-      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="8">
+      <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v>40</v>
-      </c>
-      <c r="B32" s="47">
-        <v>45569</v>
-      </c>
-      <c r="C32" s="48">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="49"/>
-      <c r="E32" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>54</v>
-      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="55"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A33" s="17">
+      <c r="A33" s="17" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v>40</v>
-      </c>
-      <c r="B33" s="51">
-        <v>45570</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B33" s="51"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="53">
-        <v>30</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A34" s="8">
+      <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v>40</v>
-      </c>
-      <c r="B34" s="47">
-        <v>45570</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B34" s="47"/>
       <c r="C34" s="48"/>
-      <c r="D34" s="49">
-        <v>20</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>56</v>
-      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A35" s="17">
+      <c r="A35" s="17" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v>40</v>
-      </c>
-      <c r="B35" s="51">
-        <v>45570</v>
-      </c>
-      <c r="C35" s="52">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="53"/>
-      <c r="E35" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>57</v>
-      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="37"/>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36" s="8">
+      <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v>41</v>
-      </c>
-      <c r="B36" s="47">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B36" s="47"/>
       <c r="C36" s="48"/>
-      <c r="D36" s="49">
-        <v>10</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A37" s="17">
+      <c r="A37" s="17" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v>41</v>
-      </c>
-      <c r="B37" s="51">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B37" s="51"/>
       <c r="C37" s="52"/>
-      <c r="D37" s="53">
-        <v>10</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>59</v>
-      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A38" s="8">
+      <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v>41</v>
-      </c>
-      <c r="B38" s="47">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B38" s="47"/>
       <c r="C38" s="48"/>
-      <c r="D38" s="49">
-        <v>15</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>60</v>
-      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.5">
-      <c r="A39" s="17">
+      <c r="A39" s="17" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v>41</v>
-      </c>
-      <c r="B39" s="51">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B39" s="51"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="53">
-        <v>5</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>61</v>
-      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A40" s="8">
+      <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v>41</v>
-      </c>
-      <c r="B40" s="47">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B40" s="47"/>
       <c r="C40" s="48"/>
-      <c r="D40" s="49">
-        <v>10</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>62</v>
-      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A41" s="17">
+      <c r="A41" s="17" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
-        <v>41</v>
-      </c>
-      <c r="B41" s="51">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B41" s="51"/>
       <c r="C41" s="52"/>
-      <c r="D41" s="53">
-        <v>10</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>63</v>
-      </c>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A42" s="8">
+      <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="47">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B42" s="47"/>
       <c r="C42" s="48"/>
-      <c r="D42" s="49">
-        <v>15</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>64</v>
-      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A43" s="17">
+      <c r="A43" s="17" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
-        <v>41</v>
-      </c>
-      <c r="B43" s="51">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B43" s="51"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="53">
-        <v>30</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>65</v>
-      </c>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A44" s="8">
+      <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
-        <v>41</v>
-      </c>
-      <c r="B44" s="47">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B44" s="47"/>
       <c r="C44" s="48"/>
-      <c r="D44" s="49">
-        <v>10</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>66</v>
-      </c>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A45" s="17">
+      <c r="A45" s="17" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
-        <v>41</v>
-      </c>
-      <c r="B45" s="51">
-        <v>45576</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B45" s="51"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="53">
-        <v>10</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>67</v>
-      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A46" s="8">
+      <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
-        <v>41</v>
-      </c>
-      <c r="B46" s="47">
-        <v>45578</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B46" s="47"/>
       <c r="C46" s="48"/>
-      <c r="D46" s="49">
-        <v>20</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>68</v>
-      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A47" s="17">
+      <c r="A47" s="17" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
-        <v>41</v>
-      </c>
-      <c r="B47" s="51">
-        <v>45578</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B47" s="51"/>
       <c r="C47" s="52"/>
-      <c r="D47" s="53">
-        <v>15</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A48" s="8">
+      <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
-        <v>43</v>
-      </c>
-      <c r="B48" s="47">
-        <v>45586</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B48" s="47"/>
       <c r="C48" s="48"/>
-      <c r="D48" s="49">
-        <v>50</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>70</v>
-      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A49" s="17">
+      <c r="A49" s="17" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
-        <v>43</v>
-      </c>
-      <c r="B49" s="51">
-        <v>45586</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B49" s="51"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="53">
-        <v>20</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>71</v>
-      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A50" s="8">
+      <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
-        <v>43</v>
-      </c>
-      <c r="B50" s="47">
-        <v>45587</v>
-      </c>
-      <c r="C50" s="48">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="49"/>
-      <c r="E50" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>72</v>
-      </c>
+      <c r="E50" s="50"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A51" s="17">
+      <c r="A51" s="17" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
-        <v>43</v>
-      </c>
-      <c r="B51" s="51">
-        <v>45587</v>
-      </c>
-      <c r="C51" s="52">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="53"/>
-      <c r="E51" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>73</v>
-      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A52" s="8">
+      <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
-        <v>43</v>
-      </c>
-      <c r="B52" s="47">
-        <v>45588</v>
-      </c>
-      <c r="C52" s="48">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
       <c r="D52" s="49"/>
-      <c r="E52" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="E52" s="50"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A53" s="17">
+      <c r="A53" s="17" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
-        <v>43</v>
-      </c>
-      <c r="B53" s="51">
-        <v>45588</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B53" s="51"/>
       <c r="C53" s="52"/>
-      <c r="D53" s="53">
-        <v>0</v>
-      </c>
-      <c r="E53" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A54" s="8">
+      <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
-        <v>43</v>
-      </c>
-      <c r="B54" s="47">
-        <v>45588</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B54" s="47"/>
       <c r="C54" s="48"/>
-      <c r="D54" s="49">
-        <v>5</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>76</v>
-      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A55" s="17">
+      <c r="A55" s="17" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
-        <v>43</v>
-      </c>
-      <c r="B55" s="51">
-        <v>45588</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B55" s="51"/>
       <c r="C55" s="52"/>
-      <c r="D55" s="53">
-        <v>10</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>77</v>
-      </c>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.5">
@@ -9127,7 +8584,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
@@ -9139,17 +8596,17 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9157,7 +8614,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.73263888888888884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9185,7 +8642,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -9193,7 +8650,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>6.5972222222222224E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9203,7 +8660,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29" t="str">
         <f>'Journal de travail'!M12</f>
@@ -9211,7 +8668,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9249,7 +8706,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -9257,7 +8714,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>6.9444444444444448E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9266,7 +8723,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.9409722222222221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9280,26 +8737,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9522,10 +8959,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9542,20 +9010,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB7A3AB-6114-432A-A4F1-DF6CA92E2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBAF5A-59F8-4756-A506-E88BFA5E73F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>30.08.2024  au 01.11.2024</t>
+  </si>
+  <si>
+    <t>Fix permettant de ne plus réafficher toutes les équipes en cas de filtre sur un jour</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1993,7 +1996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2046,7 +2049,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 0 minutes</v>
+        <v>0 jours 0 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2065,11 +2068,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2104,15 +2107,23 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
-        <v/>
-      </c>
-      <c r="B7" s="43"/>
+        <v>43</v>
+      </c>
+      <c r="B7" s="43">
+        <v>45589</v>
+      </c>
       <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="37"/>
+      <c r="D7" s="45">
+        <v>10</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
@@ -8606,7 +8617,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8614,7 +8625,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8723,7 +8734,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBAF5A-59F8-4756-A506-E88BFA5E73F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10EDB0B-A1AA-4D45-9A0F-06F49B5004CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Fix permettant de ne plus réafficher toutes les équipes en cas de filtre sur un jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation + Update de la liste des refactores à faire dans le code </t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1074,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1996,7 +1999,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 10 minutes</v>
+        <v>0 jours 0 heurs 15 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2068,11 +2071,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2127,15 +2130,23 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
-        <v/>
-      </c>
-      <c r="B8" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B8" s="47">
+        <v>45589</v>
+      </c>
       <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="37"/>
+      <c r="D8" s="49">
+        <v>5</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -8653,7 +8664,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8661,7 +8672,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8734,7 +8745,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10EDB0B-A1AA-4D45-9A0F-06F49B5004CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0298C180-B6CE-492E-BEE4-052E712C4A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Creation + Update de la liste des refactores à faire dans le code </t>
+  </si>
+  <si>
+    <t>Feat: (Form1.cs) ajout d'une openFileDialog</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1999,7 +2002,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 15 minutes</v>
+        <v>0 jours 0 heurs 25 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2071,11 +2074,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2159,15 +2162,23 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A9" s="17" t="str">
+      <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="51">
+        <v>45589</v>
+      </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="37"/>
+      <c r="D9" s="53">
+        <v>10</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -8628,7 +8639,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8636,7 +8647,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>6.9444444444444441E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8745,7 +8756,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>1.0416666666666666E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0298C180-B6CE-492E-BEE4-052E712C4A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47267467-6A69-4828-AC2B-3DDC56EFDB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Feat: (Form1.cs) ajout d'une openFileDialog</t>
+  </si>
+  <si>
+    <t>Création de la user stories "Choix du fichier de graph"</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3888888888888888E-2</c:v>
@@ -2002,7 +2005,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 25 minutes</v>
+        <v>0 jours 0 heurs 40 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2074,11 +2077,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2191,15 +2194,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45589</v>
+      </c>
       <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="49">
+        <v>15</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -8621,7 +8632,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8629,7 +8640,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8756,7 +8767,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>1.7361111111111112E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47267467-6A69-4828-AC2B-3DDC56EFDB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D2006-16B2-4313-94B2-E8CEC8105829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -141,6 +141,9 @@
   <si>
     <t>Création de la user stories "Choix du fichier de graph"</t>
   </si>
+  <si>
+    <t>Ajout et adaptation du graphique en fonction du fichier choisi</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +157,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +241,12 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -329,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -463,6 +472,10 @@
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,7 +1087,7 @@
                   <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2005,10 +2018,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2025,7 +2038,7 @@
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2036,7 +2049,7 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" ht="23.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2052,13 +2065,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="23.25">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 40 minutes</v>
+        <v>0 jours 1 heurs 5 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2069,7 +2082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:15" ht="23.25" hidden="1">
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
@@ -2077,22 +2090,22 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15">
       <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2115,7 +2128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>43</v>
@@ -2135,7 +2148,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>43</v>
@@ -2164,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15">
       <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>43</v>
@@ -2193,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>43</v>
@@ -2222,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15">
       <c r="A11" s="17" t="str">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v/>
@@ -2231,7 +2244,7 @@
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2243,16 +2256,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A12" s="8" t="str">
+    <row r="12" spans="1:15">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45589</v>
+      </c>
       <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="49">
+        <v>25</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2264,7 +2285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15">
       <c r="A13" s="17" t="str">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v/>
@@ -2285,7 +2306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15">
       <c r="A14" s="8" t="str">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v/>
@@ -2306,7 +2327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15">
       <c r="A15" s="17" t="str">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v/>
@@ -2327,7 +2348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="str">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v/>
@@ -2342,7 +2363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15">
       <c r="A17" s="17" t="str">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v/>
@@ -2357,7 +2378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15">
       <c r="A18" s="8" t="str">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v/>
@@ -2372,7 +2393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15">
       <c r="A19" s="17" t="str">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v/>
@@ -2387,7 +2408,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15">
       <c r="A20" s="8" t="str">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v/>
@@ -2399,7 +2420,7 @@
       <c r="F20" s="37"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:15">
       <c r="A21" s="17" t="str">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v/>
@@ -2411,7 +2432,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15">
       <c r="A22" s="8" t="str">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v/>
@@ -2423,7 +2444,7 @@
       <c r="F22" s="37"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15">
       <c r="A23" s="17" t="str">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v/>
@@ -2435,7 +2456,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15">
       <c r="A24" s="8" t="str">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v/>
@@ -2447,7 +2468,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15">
       <c r="A25" s="17" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v/>
@@ -2459,7 +2480,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:15">
       <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v/>
@@ -2471,7 +2492,7 @@
       <c r="F26" s="37"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:15">
       <c r="A27" s="17" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v/>
@@ -2483,7 +2504,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
@@ -2495,7 +2516,7 @@
       <c r="F28" s="36"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15">
       <c r="A29" s="17" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
@@ -2507,7 +2528,7 @@
       <c r="F29" s="36"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2519,7 +2540,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15">
       <c r="A31" s="17" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2531,7 +2552,7 @@
       <c r="F31" s="36"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2543,7 +2564,7 @@
       <c r="F32" s="55"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7">
       <c r="A33" s="17" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2555,7 +2576,7 @@
       <c r="F33" s="36"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2567,7 +2588,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7">
       <c r="A35" s="17" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2579,7 +2600,7 @@
       <c r="F35" s="37"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2591,7 +2612,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7">
       <c r="A37" s="17" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2603,7 +2624,7 @@
       <c r="F37" s="36"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2615,7 +2636,7 @@
       <c r="F38" s="36"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="17" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2627,7 +2648,7 @@
       <c r="F39" s="56"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2639,7 +2660,7 @@
       <c r="F40" s="36"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7">
       <c r="A41" s="17" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2651,7 +2672,7 @@
       <c r="F41" s="36"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2663,7 +2684,7 @@
       <c r="F42" s="36"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7">
       <c r="A43" s="17" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2675,7 +2696,7 @@
       <c r="F43" s="36"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2687,7 +2708,7 @@
       <c r="F44" s="36"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7">
       <c r="A45" s="17" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2699,7 +2720,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2711,7 +2732,7 @@
       <c r="F46" s="36"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7">
       <c r="A47" s="17" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2723,7 +2744,7 @@
       <c r="F47" s="36"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2735,7 +2756,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7">
       <c r="A49" s="17" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2747,7 +2768,7 @@
       <c r="F49" s="36"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2759,7 +2780,7 @@
       <c r="F50" s="36"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7">
       <c r="A51" s="17" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2771,7 +2792,7 @@
       <c r="F51" s="36"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2783,7 +2804,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7">
       <c r="A53" s="17" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2795,7 +2816,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2807,7 +2828,7 @@
       <c r="F54" s="36"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7">
       <c r="A55" s="17" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -2819,7 +2840,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2831,7 +2852,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7">
       <c r="A57" s="17" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2843,7 +2864,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2855,7 +2876,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7">
       <c r="A59" s="17" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -2867,7 +2888,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -2879,7 +2900,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:7">
       <c r="A61" s="17" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -2891,7 +2912,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:7">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -2903,7 +2924,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7">
       <c r="A63" s="17" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -2915,7 +2936,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -2927,7 +2948,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:7">
       <c r="A65" s="17" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -2939,7 +2960,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:7">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -2951,7 +2972,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:7">
       <c r="A67" s="17" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -2963,7 +2984,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:7">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -2975,7 +2996,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7">
       <c r="A69" s="17" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -2987,7 +3008,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:7">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -2999,7 +3020,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:7">
       <c r="A71" s="17" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -3011,7 +3032,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:7">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3023,7 +3044,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:7">
       <c r="A73" s="17" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3035,7 +3056,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:7">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3047,7 +3068,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:7">
       <c r="A75" s="17" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3059,7 +3080,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:7">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3071,7 +3092,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7">
       <c r="A77" s="17" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3083,7 +3104,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:7">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3095,7 +3116,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:7">
       <c r="A79" s="17" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3107,7 +3128,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:7">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3119,7 +3140,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:7">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3131,7 +3152,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:7">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3143,7 +3164,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:7">
       <c r="A83" s="17" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3155,7 +3176,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:7">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3167,7 +3188,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:7">
       <c r="A85" s="17" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3179,7 +3200,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:7">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3191,7 +3212,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:7">
       <c r="A87" s="17" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3203,7 +3224,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:7">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3215,7 +3236,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:7">
       <c r="A89" s="17" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3227,7 +3248,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:7">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3239,7 +3260,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:7">
       <c r="A91" s="17" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3251,7 +3272,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:7">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3263,7 +3284,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:7">
       <c r="A93" s="17" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3275,7 +3296,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:7">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3287,7 +3308,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:7">
       <c r="A95" s="17" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3299,7 +3320,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:7">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3311,7 +3332,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:7">
       <c r="A97" s="17" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3323,7 +3344,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:7">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3335,7 +3356,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:7">
       <c r="A99" s="17" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3347,7 +3368,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:7">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3359,7 +3380,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:7">
       <c r="A101" s="17" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3371,7 +3392,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:7">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3383,7 +3404,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:7">
       <c r="A103" s="17" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3395,7 +3416,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:7">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3407,7 +3428,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:7">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3419,7 +3440,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:7">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3431,7 +3452,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:7">
       <c r="A107" s="17" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3443,7 +3464,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:7">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3455,7 +3476,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:7">
       <c r="A109" s="17" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3467,7 +3488,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:7">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3479,7 +3500,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:7">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3491,7 +3512,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:7">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3503,7 +3524,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:7">
       <c r="A113" s="17" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3515,7 +3536,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:7">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3527,7 +3548,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:7">
       <c r="A115" s="17" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3539,7 +3560,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:7">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3551,7 +3572,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:7">
       <c r="A117" s="17" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3563,7 +3584,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:7">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3575,7 +3596,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:7">
       <c r="A119" s="17" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3587,7 +3608,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:7">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3599,7 +3620,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:7">
       <c r="A121" s="17" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3611,7 +3632,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:7">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3623,7 +3644,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:7">
       <c r="A123" s="17" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3635,7 +3656,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:7">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3647,7 +3668,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:7">
       <c r="A125" s="17" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3659,7 +3680,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:7">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3671,7 +3692,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:7">
       <c r="A127" s="17" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3683,7 +3704,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:7">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3695,7 +3716,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:7">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3707,7 +3728,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:7">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3719,7 +3740,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:7">
       <c r="A131" s="17" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3731,7 +3752,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:7">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3743,7 +3764,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:7">
       <c r="A133" s="17" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3755,7 +3776,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:7">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3767,7 +3788,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:7">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3779,7 +3800,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="18"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:7">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3791,7 +3812,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:7">
       <c r="A137" s="17" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3803,7 +3824,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:7">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3815,7 +3836,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:7">
       <c r="A139" s="17" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3827,7 +3848,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:7">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3839,7 +3860,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:7">
       <c r="A141" s="17" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3851,7 +3872,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:7">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -3863,7 +3884,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:7">
       <c r="A143" s="17" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -3875,7 +3896,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:7">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -3887,7 +3908,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:7">
       <c r="A145" s="17" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -3899,7 +3920,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:7">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -3911,7 +3932,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:7">
       <c r="A147" s="17" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -3923,7 +3944,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:7">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -3935,7 +3956,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:7">
       <c r="A149" s="17" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -3947,7 +3968,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:7">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -3959,7 +3980,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:7">
       <c r="A151" s="17" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -3971,7 +3992,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:7">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -3983,7 +4004,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:7">
       <c r="A153" s="17" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -3995,7 +4016,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:7">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4007,7 +4028,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:7">
       <c r="A155" s="17" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4019,7 +4040,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:7">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4031,7 +4052,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:7">
       <c r="A157" s="17" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4043,7 +4064,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:7">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4055,7 +4076,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:7">
       <c r="A159" s="17" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4067,7 +4088,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:7">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4079,7 +4100,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:7">
       <c r="A161" s="17" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4091,7 +4112,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:7">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4103,7 +4124,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:7">
       <c r="A163" s="17" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4115,7 +4136,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:7">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4127,7 +4148,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:7">
       <c r="A165" s="17" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4139,7 +4160,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:7">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4151,7 +4172,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:7">
       <c r="A167" s="17" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4163,7 +4184,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:7">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4175,7 +4196,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:7">
       <c r="A169" s="17" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4187,7 +4208,7 @@
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:7">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4199,7 +4220,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:7">
       <c r="A171" s="17" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4211,7 +4232,7 @@
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:7">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4223,7 +4244,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:7">
       <c r="A173" s="17" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4235,7 +4256,7 @@
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:7">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4247,7 +4268,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:7">
       <c r="A175" s="17" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4259,7 +4280,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:7">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4271,7 +4292,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:7">
       <c r="A177" s="17" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4283,7 +4304,7 @@
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:7">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4295,7 +4316,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:7">
       <c r="A179" s="17" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4307,7 +4328,7 @@
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:7">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4319,7 +4340,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:7">
       <c r="A181" s="17" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4331,7 +4352,7 @@
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:7">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4343,7 +4364,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:7">
       <c r="A183" s="17" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4355,7 +4376,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:7">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4367,7 +4388,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:7">
       <c r="A185" s="17" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4379,7 +4400,7 @@
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:7">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4391,7 +4412,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:7">
       <c r="A187" s="17" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4403,7 +4424,7 @@
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:7">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4415,7 +4436,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:7">
       <c r="A189" s="17" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4427,7 +4448,7 @@
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:7">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4439,7 +4460,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:7">
       <c r="A191" s="17" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4451,7 +4472,7 @@
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:7">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4463,7 +4484,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:7">
       <c r="A193" s="17" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4475,7 +4496,7 @@
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:7">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4487,7 +4508,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:7">
       <c r="A195" s="17" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4499,7 +4520,7 @@
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:7">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4511,7 +4532,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:7">
       <c r="A197" s="17" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4523,7 +4544,7 @@
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:7">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4535,7 +4556,7 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:7">
       <c r="A199" s="17" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4547,7 +4568,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:7">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4559,7 +4580,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:7">
       <c r="A201" s="17" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4571,7 +4592,7 @@
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:7">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4583,7 +4604,7 @@
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:7">
       <c r="A203" s="17" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4595,7 +4616,7 @@
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:7">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4607,7 +4628,7 @@
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:7">
       <c r="A205" s="17" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4619,7 +4640,7 @@
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:7">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4631,7 +4652,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:7">
       <c r="A207" s="17" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4643,7 +4664,7 @@
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:7">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4655,7 +4676,7 @@
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:7">
       <c r="A209" s="17" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4667,7 +4688,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:7">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4679,7 +4700,7 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:7">
       <c r="A211" s="17" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4691,7 +4712,7 @@
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:7">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4703,7 +4724,7 @@
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:7">
       <c r="A213" s="17" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4715,7 +4736,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:7">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4727,7 +4748,7 @@
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:7">
       <c r="A215" s="17" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4739,7 +4760,7 @@
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:7">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4751,7 +4772,7 @@
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:7">
       <c r="A217" s="17" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4763,7 +4784,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="18"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:7">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4775,7 +4796,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:7">
       <c r="A219" s="17" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4787,7 +4808,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="18"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:7">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4799,7 +4820,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:7">
       <c r="A221" s="17" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4811,7 +4832,7 @@
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:7">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4823,7 +4844,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:7">
       <c r="A223" s="17" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4835,7 +4856,7 @@
       <c r="F223" s="18"/>
       <c r="G223" s="18"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:7">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4847,7 +4868,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:7">
       <c r="A225" s="17" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -4859,7 +4880,7 @@
       <c r="F225" s="18"/>
       <c r="G225" s="18"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:7">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -4871,7 +4892,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:7">
       <c r="A227" s="17" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -4883,7 +4904,7 @@
       <c r="F227" s="18"/>
       <c r="G227" s="18"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:7">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -4895,7 +4916,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:7">
       <c r="A229" s="17" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -4907,7 +4928,7 @@
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:7">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -4919,7 +4940,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:7">
       <c r="A231" s="17" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -4931,7 +4952,7 @@
       <c r="F231" s="18"/>
       <c r="G231" s="18"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:7">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -4943,7 +4964,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:7">
       <c r="A233" s="17" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -4955,7 +4976,7 @@
       <c r="F233" s="18"/>
       <c r="G233" s="18"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:7">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -4967,7 +4988,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:7">
       <c r="A235" s="17" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -4979,7 +5000,7 @@
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:7">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -4991,7 +5012,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:7">
       <c r="A237" s="17" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5003,7 +5024,7 @@
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:7">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5015,7 +5036,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:7">
       <c r="A239" s="17" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5027,7 +5048,7 @@
       <c r="F239" s="18"/>
       <c r="G239" s="18"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:7">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5039,7 +5060,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:7">
       <c r="A241" s="17" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5051,7 +5072,7 @@
       <c r="F241" s="18"/>
       <c r="G241" s="18"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:7">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5063,7 +5084,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:7">
       <c r="A243" s="17" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5075,7 +5096,7 @@
       <c r="F243" s="18"/>
       <c r="G243" s="18"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:7">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5087,7 +5108,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:7">
       <c r="A245" s="17" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5099,7 +5120,7 @@
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:7">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5111,7 +5132,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:7">
       <c r="A247" s="17" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5123,7 +5144,7 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:7">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5135,7 +5156,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:7">
       <c r="A249" s="17" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5147,7 +5168,7 @@
       <c r="F249" s="18"/>
       <c r="G249" s="18"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:7">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5159,7 +5180,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:7">
       <c r="A251" s="17" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5171,7 +5192,7 @@
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:7">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5183,7 +5204,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:7">
       <c r="A253" s="17" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5195,7 +5216,7 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:7">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5207,7 +5228,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:7">
       <c r="A255" s="17" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5219,7 +5240,7 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:7">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5231,7 +5252,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:7">
       <c r="A257" s="17" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5243,7 +5264,7 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:7">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5255,7 +5276,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:7">
       <c r="A259" s="17" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5267,7 +5288,7 @@
       <c r="F259" s="18"/>
       <c r="G259" s="18"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:7">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5279,7 +5300,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:7">
       <c r="A261" s="17" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5291,7 +5312,7 @@
       <c r="F261" s="18"/>
       <c r="G261" s="18"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:7">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5303,7 +5324,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:7">
       <c r="A263" s="17" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5315,7 +5336,7 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:7">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5327,7 +5348,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:7">
       <c r="A265" s="17" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5339,7 +5360,7 @@
       <c r="F265" s="18"/>
       <c r="G265" s="18"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:7">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5351,7 +5372,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:7">
       <c r="A267" s="17" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5363,7 +5384,7 @@
       <c r="F267" s="18"/>
       <c r="G267" s="18"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:7">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5375,7 +5396,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:7">
       <c r="A269" s="17" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5387,7 +5408,7 @@
       <c r="F269" s="18"/>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:7">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5399,7 +5420,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:7">
       <c r="A271" s="17" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5411,7 +5432,7 @@
       <c r="F271" s="18"/>
       <c r="G271" s="18"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:7">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5423,7 +5444,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:7">
       <c r="A273" s="17" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5435,7 +5456,7 @@
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:7">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5447,7 +5468,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:7">
       <c r="A275" s="17" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5459,7 +5480,7 @@
       <c r="F275" s="18"/>
       <c r="G275" s="18"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:7">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5471,7 +5492,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:7">
       <c r="A277" s="17" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5483,7 +5504,7 @@
       <c r="F277" s="18"/>
       <c r="G277" s="18"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:7">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5495,7 +5516,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:7">
       <c r="A279" s="17" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5507,7 +5528,7 @@
       <c r="F279" s="18"/>
       <c r="G279" s="18"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:7">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5519,7 +5540,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:7">
       <c r="A281" s="17" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5531,7 +5552,7 @@
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:7">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5543,7 +5564,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:7">
       <c r="A283" s="17" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5555,7 +5576,7 @@
       <c r="F283" s="18"/>
       <c r="G283" s="18"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:7">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5567,7 +5588,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:7">
       <c r="A285" s="17" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5579,7 +5600,7 @@
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:7">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5591,7 +5612,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:7">
       <c r="A287" s="17" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5603,7 +5624,7 @@
       <c r="F287" s="18"/>
       <c r="G287" s="18"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:7">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5615,7 +5636,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:7">
       <c r="A289" s="17" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5627,7 +5648,7 @@
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:7">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5639,7 +5660,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:7">
       <c r="A291" s="17" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5651,7 +5672,7 @@
       <c r="F291" s="18"/>
       <c r="G291" s="18"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:7">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5663,7 +5684,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:7">
       <c r="A293" s="17" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5675,7 +5696,7 @@
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:7">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5687,7 +5708,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:7">
       <c r="A295" s="17" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5699,7 +5720,7 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:7">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5711,7 +5732,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:7">
       <c r="A297" s="17" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5723,7 +5744,7 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:7">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5735,7 +5756,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:7">
       <c r="A299" s="17" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5747,7 +5768,7 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:7">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5759,7 +5780,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:7">
       <c r="A301" s="17" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5771,7 +5792,7 @@
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:7">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5783,7 +5804,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:7">
       <c r="A303" s="17" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5795,7 +5816,7 @@
       <c r="F303" s="18"/>
       <c r="G303" s="18"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:7">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5807,7 +5828,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:7">
       <c r="A305" s="17" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5819,7 +5840,7 @@
       <c r="F305" s="18"/>
       <c r="G305" s="18"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:7">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5831,7 +5852,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:7">
       <c r="A307" s="17" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5843,7 +5864,7 @@
       <c r="F307" s="18"/>
       <c r="G307" s="18"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:7">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5855,7 +5876,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:7">
       <c r="A309" s="17" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -5867,7 +5888,7 @@
       <c r="F309" s="18"/>
       <c r="G309" s="18"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:7">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -5879,7 +5900,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:7">
       <c r="A311" s="17" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -5891,7 +5912,7 @@
       <c r="F311" s="18"/>
       <c r="G311" s="18"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:7">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -5903,7 +5924,7 @@
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:7">
       <c r="A313" s="17" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -5915,7 +5936,7 @@
       <c r="F313" s="18"/>
       <c r="G313" s="18"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:7">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -5927,7 +5948,7 @@
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:7">
       <c r="A315" s="17" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -5939,7 +5960,7 @@
       <c r="F315" s="18"/>
       <c r="G315" s="18"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:7">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -5951,7 +5972,7 @@
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:7">
       <c r="A317" s="17" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -5963,7 +5984,7 @@
       <c r="F317" s="18"/>
       <c r="G317" s="18"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:7">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -5975,7 +5996,7 @@
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:7">
       <c r="A319" s="17" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -5987,7 +6008,7 @@
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:7">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -5999,7 +6020,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:7">
       <c r="A321" s="17" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6011,7 +6032,7 @@
       <c r="F321" s="18"/>
       <c r="G321" s="18"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:7">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6023,7 +6044,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:7">
       <c r="A323" s="17" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6035,7 +6056,7 @@
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:7">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6047,7 +6068,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:7">
       <c r="A325" s="17" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6059,7 +6080,7 @@
       <c r="F325" s="18"/>
       <c r="G325" s="18"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:7">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6071,7 +6092,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:7">
       <c r="A327" s="17" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6083,7 +6104,7 @@
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:7">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6095,7 +6116,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:7">
       <c r="A329" s="17" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6107,7 +6128,7 @@
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:7">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6119,7 +6140,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:7">
       <c r="A331" s="17" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6131,7 +6152,7 @@
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:7">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6143,7 +6164,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:7">
       <c r="A333" s="17" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6155,7 +6176,7 @@
       <c r="F333" s="18"/>
       <c r="G333" s="18"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:7">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6167,7 +6188,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:7">
       <c r="A335" s="17" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6179,7 +6200,7 @@
       <c r="F335" s="18"/>
       <c r="G335" s="18"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:7">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6191,7 +6212,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:7">
       <c r="A337" s="17" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6203,7 +6224,7 @@
       <c r="F337" s="18"/>
       <c r="G337" s="18"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:7">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6215,7 +6236,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:7">
       <c r="A339" s="17" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6227,7 +6248,7 @@
       <c r="F339" s="18"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:7">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6239,7 +6260,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:7">
       <c r="A341" s="17" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6251,7 +6272,7 @@
       <c r="F341" s="18"/>
       <c r="G341" s="18"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:7">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6263,7 +6284,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:7">
       <c r="A343" s="17" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6275,7 +6296,7 @@
       <c r="F343" s="18"/>
       <c r="G343" s="18"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:7">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6287,7 +6308,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:7">
       <c r="A345" s="17" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6299,7 +6320,7 @@
       <c r="F345" s="18"/>
       <c r="G345" s="18"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:7">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6311,7 +6332,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:7">
       <c r="A347" s="17" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6323,7 +6344,7 @@
       <c r="F347" s="18"/>
       <c r="G347" s="18"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:7">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6335,7 +6356,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:7">
       <c r="A349" s="17" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6347,7 +6368,7 @@
       <c r="F349" s="18"/>
       <c r="G349" s="18"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:7">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6359,7 +6380,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:7">
       <c r="A351" s="17" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6371,7 +6392,7 @@
       <c r="F351" s="18"/>
       <c r="G351" s="18"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:7">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6383,7 +6404,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:7">
       <c r="A353" s="17" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6395,7 +6416,7 @@
       <c r="F353" s="18"/>
       <c r="G353" s="18"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:7">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6407,7 +6428,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:7">
       <c r="A355" s="17" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6419,7 +6440,7 @@
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:7">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6431,7 +6452,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:7">
       <c r="A357" s="17" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6443,7 +6464,7 @@
       <c r="F357" s="18"/>
       <c r="G357" s="18"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:7">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6455,7 +6476,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:7">
       <c r="A359" s="17" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6467,7 +6488,7 @@
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:7">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6479,7 +6500,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:7">
       <c r="A361" s="17" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6491,7 +6512,7 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:7">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6503,7 +6524,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:7">
       <c r="A363" s="17" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6515,7 +6536,7 @@
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:7">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6527,7 +6548,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:7">
       <c r="A365" s="17" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6539,7 +6560,7 @@
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:7">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6551,7 +6572,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:7">
       <c r="A367" s="17" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6563,7 +6584,7 @@
       <c r="F367" s="18"/>
       <c r="G367" s="18"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:7">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6575,7 +6596,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:7">
       <c r="A369" s="17" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6587,7 +6608,7 @@
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:7">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6599,7 +6620,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:7">
       <c r="A371" s="17" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6611,7 +6632,7 @@
       <c r="F371" s="18"/>
       <c r="G371" s="18"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:7">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6623,7 +6644,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:7">
       <c r="A373" s="17" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6635,7 +6656,7 @@
       <c r="F373" s="18"/>
       <c r="G373" s="18"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:7">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6647,7 +6668,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:7">
       <c r="A375" s="17" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6659,7 +6680,7 @@
       <c r="F375" s="18"/>
       <c r="G375" s="18"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:7">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6671,7 +6692,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:7">
       <c r="A377" s="17" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6683,7 +6704,7 @@
       <c r="F377" s="18"/>
       <c r="G377" s="18"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:7">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6695,7 +6716,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:7">
       <c r="A379" s="17" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6707,7 +6728,7 @@
       <c r="F379" s="18"/>
       <c r="G379" s="18"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:7">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6719,7 +6740,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:7">
       <c r="A381" s="17" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6731,7 +6752,7 @@
       <c r="F381" s="18"/>
       <c r="G381" s="18"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:7">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6743,7 +6764,7 @@
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:7">
       <c r="A383" s="17" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6755,7 +6776,7 @@
       <c r="F383" s="18"/>
       <c r="G383" s="18"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:7">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6767,7 +6788,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:7">
       <c r="A385" s="17" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6779,7 +6800,7 @@
       <c r="F385" s="18"/>
       <c r="G385" s="18"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:7">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6791,7 +6812,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:7">
       <c r="A387" s="17" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6803,7 +6824,7 @@
       <c r="F387" s="18"/>
       <c r="G387" s="18"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:7">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6815,7 +6836,7 @@
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:7">
       <c r="A389" s="17" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6827,7 +6848,7 @@
       <c r="F389" s="18"/>
       <c r="G389" s="18"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:7">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6839,7 +6860,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:7">
       <c r="A391" s="17" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6851,7 +6872,7 @@
       <c r="F391" s="18"/>
       <c r="G391" s="18"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:7">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -6863,7 +6884,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:7">
       <c r="A393" s="17" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -6875,7 +6896,7 @@
       <c r="F393" s="18"/>
       <c r="G393" s="18"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:7">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -6887,7 +6908,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:7">
       <c r="A395" s="17" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -6899,7 +6920,7 @@
       <c r="F395" s="18"/>
       <c r="G395" s="18"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:7">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -6911,7 +6932,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:7">
       <c r="A397" s="17" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -6923,7 +6944,7 @@
       <c r="F397" s="18"/>
       <c r="G397" s="18"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:7">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -6935,7 +6956,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:7">
       <c r="A399" s="17" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -6947,7 +6968,7 @@
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:7">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -6959,7 +6980,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:7">
       <c r="A401" s="17" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -6971,7 +6992,7 @@
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:7">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -6983,7 +7004,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:7">
       <c r="A403" s="17" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -6995,7 +7016,7 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:7">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7007,7 +7028,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:7">
       <c r="A405" s="17" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7019,7 +7040,7 @@
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:7">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7031,7 +7052,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:7">
       <c r="A407" s="17" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7043,7 +7064,7 @@
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:7">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7055,7 +7076,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:7">
       <c r="A409" s="17" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7067,7 +7088,7 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:7">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7079,7 +7100,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:7">
       <c r="A411" s="17" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7091,7 +7112,7 @@
       <c r="F411" s="18"/>
       <c r="G411" s="18"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:7">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7103,7 +7124,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:7">
       <c r="A413" s="17" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7115,7 +7136,7 @@
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:7">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7127,7 +7148,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:7">
       <c r="A415" s="17" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7139,7 +7160,7 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:7">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7151,7 +7172,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:7">
       <c r="A417" s="17" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7163,7 +7184,7 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:7">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7175,7 +7196,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:7">
       <c r="A419" s="17" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7187,7 +7208,7 @@
       <c r="F419" s="18"/>
       <c r="G419" s="18"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:7">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7199,7 +7220,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:7">
       <c r="A421" s="17" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7211,7 +7232,7 @@
       <c r="F421" s="18"/>
       <c r="G421" s="18"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:7">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7223,7 +7244,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:7">
       <c r="A423" s="17" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7235,7 +7256,7 @@
       <c r="F423" s="18"/>
       <c r="G423" s="18"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:7">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7247,7 +7268,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:7">
       <c r="A425" s="17" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7259,7 +7280,7 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:7">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7271,7 +7292,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:7">
       <c r="A427" s="17" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7283,7 +7304,7 @@
       <c r="F427" s="18"/>
       <c r="G427" s="18"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:7">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7295,7 +7316,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:7">
       <c r="A429" s="17" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7307,7 +7328,7 @@
       <c r="F429" s="18"/>
       <c r="G429" s="18"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:7">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7319,7 +7340,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:7">
       <c r="A431" s="17" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7331,7 +7352,7 @@
       <c r="F431" s="18"/>
       <c r="G431" s="18"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:7">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7343,7 +7364,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:7">
       <c r="A433" s="17" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7355,7 +7376,7 @@
       <c r="F433" s="18"/>
       <c r="G433" s="18"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:7">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7367,7 +7388,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:7">
       <c r="A435" s="17" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7379,7 +7400,7 @@
       <c r="F435" s="18"/>
       <c r="G435" s="18"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:7">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7391,7 +7412,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:7">
       <c r="A437" s="17" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7403,7 +7424,7 @@
       <c r="F437" s="18"/>
       <c r="G437" s="18"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:7">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7415,7 +7436,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:7">
       <c r="A439" s="17" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7427,7 +7448,7 @@
       <c r="F439" s="18"/>
       <c r="G439" s="18"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:7">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7439,7 +7460,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:7">
       <c r="A441" s="17" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7451,7 +7472,7 @@
       <c r="F441" s="18"/>
       <c r="G441" s="18"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:7">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7463,7 +7484,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:7">
       <c r="A443" s="17" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7475,7 +7496,7 @@
       <c r="F443" s="18"/>
       <c r="G443" s="18"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:7">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7487,7 +7508,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:7">
       <c r="A445" s="17" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7499,7 +7520,7 @@
       <c r="F445" s="18"/>
       <c r="G445" s="18"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:7">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7511,7 +7532,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:7">
       <c r="A447" s="17" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7523,7 +7544,7 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:7">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7535,7 +7556,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:7">
       <c r="A449" s="17" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7547,7 +7568,7 @@
       <c r="F449" s="18"/>
       <c r="G449" s="18"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:7">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7559,7 +7580,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:7">
       <c r="A451" s="17" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7571,7 +7592,7 @@
       <c r="F451" s="18"/>
       <c r="G451" s="18"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:7">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7583,7 +7604,7 @@
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:7">
       <c r="A453" s="17" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7595,7 +7616,7 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:7">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7607,7 +7628,7 @@
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:7">
       <c r="A455" s="17" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7619,7 +7640,7 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:7">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7631,7 +7652,7 @@
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:7">
       <c r="A457" s="17" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7643,7 +7664,7 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:7">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7655,7 +7676,7 @@
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:7">
       <c r="A459" s="17" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7667,7 +7688,7 @@
       <c r="F459" s="18"/>
       <c r="G459" s="18"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:7">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7679,7 +7700,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:7">
       <c r="A461" s="17" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7691,7 +7712,7 @@
       <c r="F461" s="18"/>
       <c r="G461" s="18"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:7">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7703,7 +7724,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:7">
       <c r="A463" s="17" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7715,7 +7736,7 @@
       <c r="F463" s="18"/>
       <c r="G463" s="18"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:7">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7727,7 +7748,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:7">
       <c r="A465" s="17" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7739,7 +7760,7 @@
       <c r="F465" s="18"/>
       <c r="G465" s="18"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:7">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7751,7 +7772,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:7">
       <c r="A467" s="17" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7763,7 +7784,7 @@
       <c r="F467" s="18"/>
       <c r="G467" s="18"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:7">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7775,7 +7796,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:7">
       <c r="A469" s="17" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7787,7 +7808,7 @@
       <c r="F469" s="18"/>
       <c r="G469" s="18"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:7">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7799,7 +7820,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:7">
       <c r="A471" s="17" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7811,7 +7832,7 @@
       <c r="F471" s="18"/>
       <c r="G471" s="18"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:7">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7823,7 +7844,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:7">
       <c r="A473" s="17" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7835,7 +7856,7 @@
       <c r="F473" s="18"/>
       <c r="G473" s="18"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:7">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7847,7 +7868,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:7">
       <c r="A475" s="17" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -7859,7 +7880,7 @@
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:7">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -7871,7 +7892,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:7">
       <c r="A477" s="17" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -7883,7 +7904,7 @@
       <c r="F477" s="18"/>
       <c r="G477" s="18"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:7">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -7895,7 +7916,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:7">
       <c r="A479" s="17" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -7907,7 +7928,7 @@
       <c r="F479" s="18"/>
       <c r="G479" s="18"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:7">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -7919,7 +7940,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:7">
       <c r="A481" s="17" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -7931,7 +7952,7 @@
       <c r="F481" s="18"/>
       <c r="G481" s="18"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:7">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -7943,7 +7964,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:7">
       <c r="A483" s="17" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -7955,7 +7976,7 @@
       <c r="F483" s="18"/>
       <c r="G483" s="18"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:7">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -7967,7 +7988,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:7">
       <c r="A485" s="17" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -7979,7 +8000,7 @@
       <c r="F485" s="18"/>
       <c r="G485" s="18"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:7">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -7991,7 +8012,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:7">
       <c r="A487" s="17" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8003,7 +8024,7 @@
       <c r="F487" s="18"/>
       <c r="G487" s="18"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:7">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8015,7 +8036,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:7">
       <c r="A489" s="17" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8027,7 +8048,7 @@
       <c r="F489" s="18"/>
       <c r="G489" s="18"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:7">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8039,7 +8060,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:7">
       <c r="A491" s="17" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8051,7 +8072,7 @@
       <c r="F491" s="18"/>
       <c r="G491" s="18"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:7">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8063,7 +8084,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:7">
       <c r="A493" s="17" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8075,7 +8096,7 @@
       <c r="F493" s="18"/>
       <c r="G493" s="18"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:7">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8087,7 +8108,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:7">
       <c r="A495" s="17" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8099,7 +8120,7 @@
       <c r="F495" s="18"/>
       <c r="G495" s="18"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:7">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8111,7 +8132,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:7">
       <c r="A497" s="17" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8123,7 +8144,7 @@
       <c r="F497" s="18"/>
       <c r="G497" s="18"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:7">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8135,7 +8156,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:7">
       <c r="A499" s="17" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8147,7 +8168,7 @@
       <c r="F499" s="18"/>
       <c r="G499" s="18"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:7">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8159,7 +8180,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:7">
       <c r="A501" s="17" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8171,7 +8192,7 @@
       <c r="F501" s="18"/>
       <c r="G501" s="18"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:7">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8183,7 +8204,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:7">
       <c r="A503" s="17" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8195,7 +8216,7 @@
       <c r="F503" s="18"/>
       <c r="G503" s="18"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:7">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8207,7 +8228,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:7">
       <c r="A505" s="17" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8219,7 +8240,7 @@
       <c r="F505" s="18"/>
       <c r="G505" s="18"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:7">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8231,7 +8252,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:7">
       <c r="A507" s="17" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8243,7 +8264,7 @@
       <c r="F507" s="18"/>
       <c r="G507" s="18"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:7">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8255,7 +8276,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:7">
       <c r="A509" s="17" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8267,7 +8288,7 @@
       <c r="F509" s="18"/>
       <c r="G509" s="18"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:7">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8279,7 +8300,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:7">
       <c r="A511" s="17" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8291,7 +8312,7 @@
       <c r="F511" s="18"/>
       <c r="G511" s="18"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:7">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8303,7 +8324,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:7">
       <c r="A513" s="17" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8315,7 +8336,7 @@
       <c r="F513" s="18"/>
       <c r="G513" s="18"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:7">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8327,7 +8348,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:7">
       <c r="A515" s="17" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8339,7 +8360,7 @@
       <c r="F515" s="18"/>
       <c r="G515" s="18"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:7">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8351,7 +8372,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:7">
       <c r="A517" s="17" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8363,7 +8384,7 @@
       <c r="F517" s="18"/>
       <c r="G517" s="18"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:7">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8375,7 +8396,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:7">
       <c r="A519" s="17" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8387,7 +8408,7 @@
       <c r="F519" s="18"/>
       <c r="G519" s="18"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:7">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8399,7 +8420,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:7">
       <c r="A521" s="17" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8411,7 +8432,7 @@
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:7">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8423,7 +8444,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:7">
       <c r="A523" s="17" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8435,7 +8456,7 @@
       <c r="F523" s="18"/>
       <c r="G523" s="18"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:7">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8447,7 +8468,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:7">
       <c r="A525" s="17" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8459,7 +8480,7 @@
       <c r="F525" s="18"/>
       <c r="G525" s="18"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:7">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8471,7 +8492,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:7">
       <c r="A527" s="17" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8483,7 +8504,7 @@
       <c r="F527" s="18"/>
       <c r="G527" s="18"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:7">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8495,7 +8516,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:7">
       <c r="A529" s="17" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8507,7 +8528,7 @@
       <c r="F529" s="18"/>
       <c r="G529" s="18"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:7">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8519,7 +8540,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:7">
       <c r="A531" s="17" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8531,7 +8552,7 @@
       <c r="F531" s="18"/>
       <c r="G531" s="18"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:7">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8603,7 +8624,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" hidden="1" customWidth="1"/>
@@ -8611,7 +8632,7 @@
     <col min="4" max="4" width="13.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8625,7 +8646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8643,14 +8664,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8658,10 +8679,10 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8679,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8697,7 +8718,7 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8715,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8733,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
         <v>0</v>
@@ -8747,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
         <v>0</v>
@@ -8761,16 +8782,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4">
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>4.5138888888888888E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="D14" s="39"/>
     </row>
   </sheetData>

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363D2006-16B2-4313-94B2-E8CEC8105829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC93C7D-550F-4B7D-997A-20344AC94F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Ajout et adaptation du graphique en fonction du fichier choisi</t>
+  </si>
+  <si>
+    <t>Doc: (Rapport) Ecriture du point 2.4 et 2.5</t>
+  </si>
+  <si>
+    <t>Doc: (Rapport) Ecriture de la stratégie de test global</t>
   </si>
 </sst>
 </file>
@@ -466,16 +472,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,7 +1099,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.472222222222222E-3</c:v>
+                  <c:v>2.4305555555555556E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2018,7 +2024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2053,11 +2059,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2071,7 +2077,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 5 minutes</v>
+        <v>0 jours 1 heurs 35 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2090,20 +2096,20 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="19" t="s">
@@ -2244,7 +2250,7 @@
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
-      <c r="F11" s="59"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2286,15 +2292,23 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="B13" s="51">
+        <v>45591</v>
+      </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="D13" s="53">
+        <v>10</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2307,15 +2321,23 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45591</v>
+      </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
+      <c r="D14" s="49">
+        <v>20</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -8707,7 +8729,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8715,7 +8737,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>3.472222222222222E-3</v>
+        <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8788,7 +8810,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>4.5138888888888888E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8802,6 +8824,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9024,27 +9066,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9061,23 +9102,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC93C7D-550F-4B7D-997A-20344AC94F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E418B-BF6C-44E5-93B6-C81D7E5F1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Doc: (Rapport) Ecriture de la stratégie de test global</t>
+  </si>
+  <si>
+    <t>Comment: (Graph.cs) ajout des commentaire dans la classe</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
                   <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2024,7 +2027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2077,7 +2080,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 35 minutes</v>
+        <v>0 jours 1 heurs 50 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2096,11 +2099,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2350,15 +2353,23 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="B15" s="51">
+        <v>45591</v>
+      </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="37"/>
+      <c r="D15" s="53">
+        <v>15</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -8693,7 +8704,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8701,7 +8712,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8810,7 +8821,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>6.5972222222222224E-2</v>
+        <v>7.6388888888888881E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E418B-BF6C-44E5-93B6-C81D7E5F1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321B09A-4DEE-47CA-9146-87F59BB2B6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Comment: (Graph.cs) ajout des commentaire dans la classe</t>
+  </si>
+  <si>
+    <t>Ajout d'un test unitaire qui vérifie que suite a la méthode createGraph le graph n'est pas vide</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7361111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.4305555555555556E-2</c:v>
@@ -2027,7 +2030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 1 heurs 50 minutes</v>
+        <v>0 jours 2 heurs 15 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2099,11 +2102,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2382,15 +2385,23 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="47"/>
+        <v>44</v>
+      </c>
+      <c r="B16" s="47">
+        <v>45594</v>
+      </c>
       <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="37"/>
+      <c r="D16" s="49">
+        <v>25</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
@@ -8722,7 +8733,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" s="27" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8730,7 +8741,7 @@
       </c>
       <c r="D6" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8821,7 +8832,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>7.6388888888888881E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8835,26 +8846,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9077,10 +9068,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9097,20 +9119,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321B09A-4DEE-47CA-9146-87F59BB2B6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9CAE8-1187-42F6-9EB7-DF684818F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Ajout d'un test unitaire qui vérifie que suite a la méthode createGraph le graph n'est pas vide</t>
+  </si>
+  <si>
+    <t>Ajout d'un test unitaire sur la méthode loadFile</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1105,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7361111111111112E-2</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.4305555555555556E-2</c:v>
@@ -2028,7 +2031,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
@@ -2083,7 +2086,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 15 minutes</v>
+        <v>0 jours 2 heurs 30 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2102,11 +2105,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2408,15 +2411,23 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="B17" s="51">
+        <v>45594</v>
+      </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="53">
+        <v>15</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="O17">
         <v>45</v>
@@ -8733,7 +8744,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="27" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8741,7 +8752,7 @@
       </c>
       <c r="D6" s="34">
         <f t="shared" si="0"/>
-        <v>1.7361111111111112E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8832,7 +8843,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>9.375E-2</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9CAE8-1187-42F6-9EB7-DF684818F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC95B44-87A3-4CB1-A75A-AF5B4CDB79CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Ajout d'un test unitaire sur la méthode loadFile</t>
+  </si>
+  <si>
+    <t>Ajout d'un test sur la méthode creatGraph afin de vérifier que le nombre de ligne du graph est équivalent au nombre de checkbox d'équipe cochée (Sauf la checkbox "Tout supprimer")</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.4305555555555556E-2</c:v>
@@ -2031,9 +2034,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2086,7 +2089,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 30 minutes</v>
+        <v>0 jours 2 heurs 40 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2433,16 +2436,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="8" t="str">
+    <row r="18" spans="1:15" ht="31.5">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="47"/>
+        <v>44</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45594</v>
+      </c>
       <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="49">
+        <v>10</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="O18">
         <v>50</v>
@@ -8744,7 +8755,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" s="27" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8752,7 +8763,7 @@
       </c>
       <c r="D6" s="34">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8843,7 +8854,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.10416666666666666</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC95B44-87A3-4CB1-A75A-AF5B4CDB79CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3CAA3-3228-4A76-B5C0-097FF4A4323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Ajout d'un test sur la méthode creatGraph afin de vérifier que le nombre de ligne du graph est équivalent au nombre de checkbox d'équipe cochée (Sauf la checkbox "Tout supprimer")</t>
+  </si>
+  <si>
+    <t>Doc: (rapport) Fin de l'écriture des points 2.4, 2.5 et 2.6</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
                   <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4305555555555556E-2</c:v>
+                  <c:v>3.8194444444444448E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2036,7 +2039,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2089,7 +2092,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 40 minutes</v>
+        <v>0 jours 3 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2108,11 +2111,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2460,15 +2463,23 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="17" t="str">
+      <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="B19" s="51">
+        <v>45594</v>
+      </c>
       <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="53">
+        <v>20</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="O19">
         <v>55</v>
@@ -8773,7 +8784,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8781,7 +8792,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>2.4305555555555556E-2</v>
+        <v>3.8194444444444448E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8854,7 +8865,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3CAA3-3228-4A76-B5C0-097FF4A4323F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A7211-54AD-4AAA-8B21-794B1F2EE371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -2039,7 +2039,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A7211-54AD-4AAA-8B21-794B1F2EE371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81201D-F946-44B2-8D14-72FAA564E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Doc: (rapport) Fin de l'écriture des points 2.4, 2.5 et 2.6</t>
+  </si>
+  <si>
+    <t>Fix: (Graph.cs &amp;&amp; form1.cs) fix d'un bug rendant dedendant les donnée si l'utilisateur recharge un fichier</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
                   <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>4.8611111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.4722222222222224E-2</c:v>
@@ -2039,7 +2042,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2092,7 +2095,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 0 minutes</v>
+        <v>0 jours 3 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2111,11 +2114,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2485,16 +2488,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="8" t="str">
+    <row r="20" spans="1:15" ht="31.5">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="47"/>
+        <v>44</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45595</v>
+      </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="49">
+        <v>10</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:15">
@@ -8748,7 +8759,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8756,7 +8767,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>4.1666666666666664E-2</v>
+        <v>4.8611111111111112E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8865,7 +8876,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.125</v>
+        <v>0.13194444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8879,6 +8890,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9101,27 +9132,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9138,23 +9168,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81201D-F946-44B2-8D14-72FAA564E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A65D8-1573-4AF7-B0EF-A6958FA73536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Fix: (Graph.cs &amp;&amp; form1.cs) fix d'un bug rendant dedendant les donnée si l'utilisateur recharge un fichier</t>
+  </si>
+  <si>
+    <t>doc: (rapport) Ecriture des point 2.3 et 3.4</t>
+  </si>
+  <si>
+    <t>Doc: (Rapport) réalisation du point 3.5</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1123,7 @@
                   <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8194444444444448E-2</c:v>
+                  <c:v>0.16319444444444445</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2040,9 +2046,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2095,7 +2101,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 10 minutes</v>
+        <v>0 jours 6 heurs 9 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2110,7 +2116,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2509,27 +2515,43 @@
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="B21" s="51">
+        <v>45595</v>
+      </c>
+      <c r="C21" s="52">
+        <v>2</v>
+      </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+        <v>44</v>
+      </c>
+      <c r="B22" s="47">
+        <v>45596</v>
+      </c>
+      <c r="C22" s="48">
+        <v>1</v>
+      </c>
       <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15">
@@ -8791,7 +8813,7 @@
     <row r="7" spans="1:4">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
@@ -8803,7 +8825,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>3.8194444444444448E-2</v>
+        <v>0.16319444444444445</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8876,7 +8898,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.13194444444444445</v>
+        <v>0.25694444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8890,26 +8912,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9132,10 +9134,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9152,20 +9185,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9A65D8-1573-4AF7-B0EF-A6958FA73536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069813D4-E155-4060-8EF1-D74C07890A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="14400" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Doc: (Rapport) réalisation du point 3.5</t>
+  </si>
+  <si>
+    <t>doc: (Rapport) rédaction des points 4 et 5 du rapport</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
                   <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16319444444444445</c:v>
+                  <c:v>0.18055555555555555</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2046,9 +2049,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2101,7 +2104,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 9 minutes</v>
+        <v>0 jours 6 heurs 35 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2555,15 +2558,23 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="B23" s="51">
+        <v>45596</v>
+      </c>
       <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="37"/>
+      <c r="D23" s="53">
+        <v>25</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15">
@@ -8817,7 +8828,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8825,7 +8836,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>0.16319444444444445</v>
+        <v>0.18055555555555555</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8898,7 +8909,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.25694444444444442</v>
+        <v>0.27430555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069813D4-E155-4060-8EF1-D74C07890A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73026E2C-8697-41AC-8271-E4F253127E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -177,6 +177,9 @@
   <si>
     <t>doc: (Rapport) rédaction des points 4 et 5 du rapport</t>
   </si>
+  <si>
+    <t>Chore: (DataSelction.cs, Form1.cs) Ajout d'une gestion d'erreur sur la méthode loadFile</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +193,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,80 +520,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -757,6 +686,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1120,7 +1123,7 @@
                   <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8611111111111112E-2</c:v>
+                  <c:v>6.9444444444444448E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.4722222222222224E-2</c:v>
@@ -1844,18 +1847,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2051,10 +2054,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2071,7 +2074,7 @@
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2098,13 +2101,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 35 minutes</v>
+        <v>0 jours 7 heurs 5 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2115,7 +2118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1">
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
@@ -2123,22 +2126,22 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="59"/>
     </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>43</v>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>43</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>43</v>
@@ -2239,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>43</v>
@@ -2268,7 +2271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="str">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v/>
@@ -2289,7 +2292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>43</v>
@@ -2318,7 +2321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>43</v>
@@ -2347,7 +2350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>43</v>
@@ -2376,7 +2379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>43</v>
@@ -2405,7 +2408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>44</v>
@@ -2428,7 +2431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>44</v>
@@ -2451,7 +2454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>44</v>
@@ -2474,7 +2477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>44</v>
@@ -2497,7 +2500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31.5">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>44</v>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>44</v>
@@ -2537,7 +2540,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>44</v>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>44</v>
@@ -2577,19 +2580,27 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="8" t="str">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="47"/>
+        <v>44</v>
+      </c>
+      <c r="B24" s="47">
+        <v>45597</v>
+      </c>
       <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="37"/>
+      <c r="D24" s="49">
+        <v>30</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="str">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v/>
@@ -2601,7 +2612,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v/>
@@ -2613,7 +2624,7 @@
       <c r="F26" s="37"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v/>
@@ -2625,7 +2636,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
@@ -2637,7 +2648,7 @@
       <c r="F28" s="36"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
@@ -2649,7 +2660,7 @@
       <c r="F29" s="36"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2661,7 +2672,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2673,7 +2684,7 @@
       <c r="F31" s="36"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2685,7 +2696,7 @@
       <c r="F32" s="55"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2697,7 +2708,7 @@
       <c r="F33" s="36"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2709,7 +2720,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2721,7 +2732,7 @@
       <c r="F35" s="37"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2733,7 +2744,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2745,7 +2756,7 @@
       <c r="F37" s="36"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2757,7 +2768,7 @@
       <c r="F38" s="36"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2769,7 +2780,7 @@
       <c r="F39" s="56"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2781,7 +2792,7 @@
       <c r="F40" s="36"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2793,7 +2804,7 @@
       <c r="F41" s="36"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2805,7 +2816,7 @@
       <c r="F42" s="36"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2817,7 +2828,7 @@
       <c r="F43" s="36"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2829,7 +2840,7 @@
       <c r="F44" s="36"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2841,7 +2852,7 @@
       <c r="F45" s="36"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2853,7 +2864,7 @@
       <c r="F46" s="36"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2865,7 +2876,7 @@
       <c r="F47" s="36"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2877,7 +2888,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2889,7 +2900,7 @@
       <c r="F49" s="36"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2901,7 +2912,7 @@
       <c r="F50" s="36"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2913,7 +2924,7 @@
       <c r="F51" s="36"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2925,7 +2936,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2937,7 +2948,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2949,7 +2960,7 @@
       <c r="F54" s="36"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -2961,7 +2972,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2973,7 +2984,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2985,7 +2996,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2997,7 +3008,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -3009,7 +3020,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -3021,7 +3032,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -3033,7 +3044,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -3045,7 +3056,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -3057,7 +3068,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -3069,7 +3080,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -3081,7 +3092,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -3093,7 +3104,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -3105,7 +3116,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -3117,7 +3128,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -3129,7 +3140,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -3141,7 +3152,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -3153,7 +3164,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3165,7 +3176,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3177,7 +3188,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3189,7 +3200,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3201,7 +3212,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3213,7 +3224,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3225,7 +3236,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3237,7 +3248,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3249,7 +3260,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3261,7 +3272,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3273,7 +3284,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3285,7 +3296,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3297,7 +3308,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3309,7 +3320,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3321,7 +3332,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3333,7 +3344,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3345,7 +3356,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3357,7 +3368,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3369,7 +3380,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3381,7 +3392,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3393,7 +3404,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3405,7 +3416,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3417,7 +3428,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3429,7 +3440,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3441,7 +3452,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3453,7 +3464,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3465,7 +3476,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3477,7 +3488,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3489,7 +3500,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3501,7 +3512,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3513,7 +3524,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3525,7 +3536,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3537,7 +3548,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3549,7 +3560,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3561,7 +3572,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3573,7 +3584,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3585,7 +3596,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3597,7 +3608,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3609,7 +3620,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3621,7 +3632,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3633,7 +3644,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3645,7 +3656,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3657,7 +3668,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3669,7 +3680,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3681,7 +3692,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3693,7 +3704,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3705,7 +3716,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3717,7 +3728,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3729,7 +3740,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3741,7 +3752,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3753,7 +3764,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3765,7 +3776,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3777,7 +3788,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3789,7 +3800,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3801,7 +3812,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3813,7 +3824,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3825,7 +3836,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3837,7 +3848,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3849,7 +3860,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3861,7 +3872,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3873,7 +3884,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3885,7 +3896,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3897,7 +3908,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3909,7 +3920,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3921,7 +3932,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="18"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3933,7 +3944,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3945,7 +3956,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3957,7 +3968,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3969,7 +3980,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3981,7 +3992,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3993,7 +4004,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -4005,7 +4016,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -4017,7 +4028,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -4029,7 +4040,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -4041,7 +4052,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -4053,7 +4064,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -4065,7 +4076,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -4077,7 +4088,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -4089,7 +4100,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -4101,7 +4112,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -4113,7 +4124,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -4125,7 +4136,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -4137,7 +4148,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4149,7 +4160,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4161,7 +4172,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4173,7 +4184,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4185,7 +4196,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4197,7 +4208,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4209,7 +4220,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4221,7 +4232,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4233,7 +4244,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4245,7 +4256,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4257,7 +4268,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4269,7 +4280,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4281,7 +4292,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4293,7 +4304,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4305,7 +4316,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4317,7 +4328,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4329,7 +4340,7 @@
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4341,7 +4352,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4353,7 +4364,7 @@
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4365,7 +4376,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4377,7 +4388,7 @@
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4389,7 +4400,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4401,7 +4412,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4413,7 +4424,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4425,7 +4436,7 @@
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4437,7 +4448,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4449,7 +4460,7 @@
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4461,7 +4472,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4473,7 +4484,7 @@
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4485,7 +4496,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4497,7 +4508,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4509,7 +4520,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4521,7 +4532,7 @@
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4533,7 +4544,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4545,7 +4556,7 @@
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4557,7 +4568,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4569,7 +4580,7 @@
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4581,7 +4592,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4593,7 +4604,7 @@
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4605,7 +4616,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4617,7 +4628,7 @@
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4629,7 +4640,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4641,7 +4652,7 @@
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4653,7 +4664,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4665,7 +4676,7 @@
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4677,7 +4688,7 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4689,7 +4700,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4701,7 +4712,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4713,7 +4724,7 @@
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4725,7 +4736,7 @@
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4737,7 +4748,7 @@
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4749,7 +4760,7 @@
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4761,7 +4772,7 @@
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4773,7 +4784,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4785,7 +4796,7 @@
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4797,7 +4808,7 @@
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4809,7 +4820,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4821,7 +4832,7 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4833,7 +4844,7 @@
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4845,7 +4856,7 @@
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4857,7 +4868,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4869,7 +4880,7 @@
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4881,7 +4892,7 @@
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4893,7 +4904,7 @@
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4905,7 +4916,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="18"/>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4917,7 +4928,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4929,7 +4940,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="18"/>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4941,7 +4952,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4953,7 +4964,7 @@
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4965,7 +4976,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4977,7 +4988,7 @@
       <c r="F223" s="18"/>
       <c r="G223" s="18"/>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4989,7 +5000,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -5001,7 +5012,7 @@
       <c r="F225" s="18"/>
       <c r="G225" s="18"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -5013,7 +5024,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -5025,7 +5036,7 @@
       <c r="F227" s="18"/>
       <c r="G227" s="18"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -5037,7 +5048,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -5049,7 +5060,7 @@
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -5061,7 +5072,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -5073,7 +5084,7 @@
       <c r="F231" s="18"/>
       <c r="G231" s="18"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -5085,7 +5096,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -5097,7 +5108,7 @@
       <c r="F233" s="18"/>
       <c r="G233" s="18"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -5109,7 +5120,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -5121,7 +5132,7 @@
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -5133,7 +5144,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5145,7 +5156,7 @@
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5157,7 +5168,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5169,7 +5180,7 @@
       <c r="F239" s="18"/>
       <c r="G239" s="18"/>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5181,7 +5192,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5193,7 +5204,7 @@
       <c r="F241" s="18"/>
       <c r="G241" s="18"/>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5205,7 +5216,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5217,7 +5228,7 @@
       <c r="F243" s="18"/>
       <c r="G243" s="18"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5229,7 +5240,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5241,7 +5252,7 @@
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5253,7 +5264,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5265,7 +5276,7 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5277,7 +5288,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5289,7 +5300,7 @@
       <c r="F249" s="18"/>
       <c r="G249" s="18"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5301,7 +5312,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5313,7 +5324,7 @@
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5325,7 +5336,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5337,7 +5348,7 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5349,7 +5360,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5361,7 +5372,7 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5373,7 +5384,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5385,7 +5396,7 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5397,7 +5408,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="17" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5409,7 +5420,7 @@
       <c r="F259" s="18"/>
       <c r="G259" s="18"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5421,7 +5432,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5433,7 +5444,7 @@
       <c r="F261" s="18"/>
       <c r="G261" s="18"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5445,7 +5456,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5457,7 +5468,7 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5469,7 +5480,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5481,7 +5492,7 @@
       <c r="F265" s="18"/>
       <c r="G265" s="18"/>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5493,7 +5504,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5505,7 +5516,7 @@
       <c r="F267" s="18"/>
       <c r="G267" s="18"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5517,7 +5528,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5529,7 +5540,7 @@
       <c r="F269" s="18"/>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5541,7 +5552,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5553,7 +5564,7 @@
       <c r="F271" s="18"/>
       <c r="G271" s="18"/>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5565,7 +5576,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5577,7 +5588,7 @@
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5589,7 +5600,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5601,7 +5612,7 @@
       <c r="F275" s="18"/>
       <c r="G275" s="18"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5613,7 +5624,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5625,7 +5636,7 @@
       <c r="F277" s="18"/>
       <c r="G277" s="18"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5637,7 +5648,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5649,7 +5660,7 @@
       <c r="F279" s="18"/>
       <c r="G279" s="18"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5661,7 +5672,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5673,7 +5684,7 @@
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5685,7 +5696,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5697,7 +5708,7 @@
       <c r="F283" s="18"/>
       <c r="G283" s="18"/>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5709,7 +5720,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5721,7 +5732,7 @@
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5733,7 +5744,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5745,7 +5756,7 @@
       <c r="F287" s="18"/>
       <c r="G287" s="18"/>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5757,7 +5768,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5769,7 +5780,7 @@
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5781,7 +5792,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5793,7 +5804,7 @@
       <c r="F291" s="18"/>
       <c r="G291" s="18"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5805,7 +5816,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5817,7 +5828,7 @@
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5829,7 +5840,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5841,7 +5852,7 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5853,7 +5864,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5865,7 +5876,7 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5877,7 +5888,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5889,7 +5900,7 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5901,7 +5912,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5913,7 +5924,7 @@
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5925,7 +5936,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5937,7 +5948,7 @@
       <c r="F303" s="18"/>
       <c r="G303" s="18"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5949,7 +5960,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5961,7 +5972,7 @@
       <c r="F305" s="18"/>
       <c r="G305" s="18"/>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5973,7 +5984,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5985,7 +5996,7 @@
       <c r="F307" s="18"/>
       <c r="G307" s="18"/>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5997,7 +6008,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -6009,7 +6020,7 @@
       <c r="F309" s="18"/>
       <c r="G309" s="18"/>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -6021,7 +6032,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -6033,7 +6044,7 @@
       <c r="F311" s="18"/>
       <c r="G311" s="18"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -6045,7 +6056,7 @@
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -6057,7 +6068,7 @@
       <c r="F313" s="18"/>
       <c r="G313" s="18"/>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -6069,7 +6080,7 @@
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -6081,7 +6092,7 @@
       <c r="F315" s="18"/>
       <c r="G315" s="18"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -6093,7 +6104,7 @@
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -6105,7 +6116,7 @@
       <c r="F317" s="18"/>
       <c r="G317" s="18"/>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -6117,7 +6128,7 @@
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -6129,7 +6140,7 @@
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -6141,7 +6152,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6153,7 +6164,7 @@
       <c r="F321" s="18"/>
       <c r="G321" s="18"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6165,7 +6176,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6177,7 +6188,7 @@
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6189,7 +6200,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6201,7 +6212,7 @@
       <c r="F325" s="18"/>
       <c r="G325" s="18"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6213,7 +6224,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6225,7 +6236,7 @@
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6237,7 +6248,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6249,7 +6260,7 @@
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6261,7 +6272,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6273,7 +6284,7 @@
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6285,7 +6296,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6297,7 +6308,7 @@
       <c r="F333" s="18"/>
       <c r="G333" s="18"/>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6309,7 +6320,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="17" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6321,7 +6332,7 @@
       <c r="F335" s="18"/>
       <c r="G335" s="18"/>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6333,7 +6344,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="17" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6345,7 +6356,7 @@
       <c r="F337" s="18"/>
       <c r="G337" s="18"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6357,7 +6368,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6369,7 +6380,7 @@
       <c r="F339" s="18"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6381,7 +6392,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="17" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6393,7 +6404,7 @@
       <c r="F341" s="18"/>
       <c r="G341" s="18"/>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6405,7 +6416,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6417,7 +6428,7 @@
       <c r="F343" s="18"/>
       <c r="G343" s="18"/>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6429,7 +6440,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="17" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6441,7 +6452,7 @@
       <c r="F345" s="18"/>
       <c r="G345" s="18"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6453,7 +6464,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6465,7 +6476,7 @@
       <c r="F347" s="18"/>
       <c r="G347" s="18"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6477,7 +6488,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6489,7 +6500,7 @@
       <c r="F349" s="18"/>
       <c r="G349" s="18"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6501,7 +6512,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="17" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6513,7 +6524,7 @@
       <c r="F351" s="18"/>
       <c r="G351" s="18"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6525,7 +6536,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="17" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6537,7 +6548,7 @@
       <c r="F353" s="18"/>
       <c r="G353" s="18"/>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6549,7 +6560,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6561,7 +6572,7 @@
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6573,7 +6584,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="17" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6585,7 +6596,7 @@
       <c r="F357" s="18"/>
       <c r="G357" s="18"/>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6597,7 +6608,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="17" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6609,7 +6620,7 @@
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6621,7 +6632,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="17" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6633,7 +6644,7 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6645,7 +6656,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6657,7 +6668,7 @@
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6669,7 +6680,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="17" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6681,7 +6692,7 @@
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6693,7 +6704,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="17" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6705,7 +6716,7 @@
       <c r="F367" s="18"/>
       <c r="G367" s="18"/>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6717,7 +6728,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="17" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6729,7 +6740,7 @@
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6741,7 +6752,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6753,7 +6764,7 @@
       <c r="F371" s="18"/>
       <c r="G371" s="18"/>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6765,7 +6776,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6777,7 +6788,7 @@
       <c r="F373" s="18"/>
       <c r="G373" s="18"/>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6789,7 +6800,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6801,7 +6812,7 @@
       <c r="F375" s="18"/>
       <c r="G375" s="18"/>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6813,7 +6824,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="17" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6825,7 +6836,7 @@
       <c r="F377" s="18"/>
       <c r="G377" s="18"/>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6837,7 +6848,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="17" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6849,7 +6860,7 @@
       <c r="F379" s="18"/>
       <c r="G379" s="18"/>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6861,7 +6872,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="17" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6873,7 +6884,7 @@
       <c r="F381" s="18"/>
       <c r="G381" s="18"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6885,7 +6896,7 @@
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="17" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6897,7 +6908,7 @@
       <c r="F383" s="18"/>
       <c r="G383" s="18"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6909,7 +6920,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6921,7 +6932,7 @@
       <c r="F385" s="18"/>
       <c r="G385" s="18"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6933,7 +6944,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6945,7 +6956,7 @@
       <c r="F387" s="18"/>
       <c r="G387" s="18"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6957,7 +6968,7 @@
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6969,7 +6980,7 @@
       <c r="F389" s="18"/>
       <c r="G389" s="18"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6981,7 +6992,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="17" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6993,7 +7004,7 @@
       <c r="F391" s="18"/>
       <c r="G391" s="18"/>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -7005,7 +7016,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -7017,7 +7028,7 @@
       <c r="F393" s="18"/>
       <c r="G393" s="18"/>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -7029,7 +7040,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -7041,7 +7052,7 @@
       <c r="F395" s="18"/>
       <c r="G395" s="18"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -7053,7 +7064,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -7065,7 +7076,7 @@
       <c r="F397" s="18"/>
       <c r="G397" s="18"/>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -7077,7 +7088,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="17" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -7089,7 +7100,7 @@
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -7101,7 +7112,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -7113,7 +7124,7 @@
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -7125,7 +7136,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -7137,7 +7148,7 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7149,7 +7160,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="17" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7161,7 +7172,7 @@
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7173,7 +7184,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="17" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7185,7 +7196,7 @@
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7197,7 +7208,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="17" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7209,7 +7220,7 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7221,7 +7232,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7233,7 +7244,7 @@
       <c r="F411" s="18"/>
       <c r="G411" s="18"/>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7245,7 +7256,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7257,7 +7268,7 @@
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7269,7 +7280,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7281,7 +7292,7 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7293,7 +7304,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="17" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7305,7 +7316,7 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7317,7 +7328,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7329,7 +7340,7 @@
       <c r="F419" s="18"/>
       <c r="G419" s="18"/>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7341,7 +7352,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7353,7 +7364,7 @@
       <c r="F421" s="18"/>
       <c r="G421" s="18"/>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7365,7 +7376,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7377,7 +7388,7 @@
       <c r="F423" s="18"/>
       <c r="G423" s="18"/>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7389,7 +7400,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7401,7 +7412,7 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7413,7 +7424,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="17" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7425,7 +7436,7 @@
       <c r="F427" s="18"/>
       <c r="G427" s="18"/>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7437,7 +7448,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7449,7 +7460,7 @@
       <c r="F429" s="18"/>
       <c r="G429" s="18"/>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7461,7 +7472,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7473,7 +7484,7 @@
       <c r="F431" s="18"/>
       <c r="G431" s="18"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7485,7 +7496,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="17" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7497,7 +7508,7 @@
       <c r="F433" s="18"/>
       <c r="G433" s="18"/>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7509,7 +7520,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="17" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7521,7 +7532,7 @@
       <c r="F435" s="18"/>
       <c r="G435" s="18"/>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7533,7 +7544,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7545,7 +7556,7 @@
       <c r="F437" s="18"/>
       <c r="G437" s="18"/>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7557,7 +7568,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7569,7 +7580,7 @@
       <c r="F439" s="18"/>
       <c r="G439" s="18"/>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7581,7 +7592,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7593,7 +7604,7 @@
       <c r="F441" s="18"/>
       <c r="G441" s="18"/>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7605,7 +7616,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7617,7 +7628,7 @@
       <c r="F443" s="18"/>
       <c r="G443" s="18"/>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7629,7 +7640,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7641,7 +7652,7 @@
       <c r="F445" s="18"/>
       <c r="G445" s="18"/>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7653,7 +7664,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7665,7 +7676,7 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7677,7 +7688,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7689,7 +7700,7 @@
       <c r="F449" s="18"/>
       <c r="G449" s="18"/>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7701,7 +7712,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7713,7 +7724,7 @@
       <c r="F451" s="18"/>
       <c r="G451" s="18"/>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7725,7 +7736,7 @@
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7737,7 +7748,7 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7749,7 +7760,7 @@
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7761,7 +7772,7 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7773,7 +7784,7 @@
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7785,7 +7796,7 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7797,7 +7808,7 @@
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7809,7 +7820,7 @@
       <c r="F459" s="18"/>
       <c r="G459" s="18"/>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7821,7 +7832,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7833,7 +7844,7 @@
       <c r="F461" s="18"/>
       <c r="G461" s="18"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7845,7 +7856,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7857,7 +7868,7 @@
       <c r="F463" s="18"/>
       <c r="G463" s="18"/>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7869,7 +7880,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7881,7 +7892,7 @@
       <c r="F465" s="18"/>
       <c r="G465" s="18"/>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7893,7 +7904,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7905,7 +7916,7 @@
       <c r="F467" s="18"/>
       <c r="G467" s="18"/>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7917,7 +7928,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7929,7 +7940,7 @@
       <c r="F469" s="18"/>
       <c r="G469" s="18"/>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7941,7 +7952,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7953,7 +7964,7 @@
       <c r="F471" s="18"/>
       <c r="G471" s="18"/>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7965,7 +7976,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7977,7 +7988,7 @@
       <c r="F473" s="18"/>
       <c r="G473" s="18"/>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7989,7 +8000,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -8001,7 +8012,7 @@
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -8013,7 +8024,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -8025,7 +8036,7 @@
       <c r="F477" s="18"/>
       <c r="G477" s="18"/>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -8037,7 +8048,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -8049,7 +8060,7 @@
       <c r="F479" s="18"/>
       <c r="G479" s="18"/>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -8061,7 +8072,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -8073,7 +8084,7 @@
       <c r="F481" s="18"/>
       <c r="G481" s="18"/>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -8085,7 +8096,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -8097,7 +8108,7 @@
       <c r="F483" s="18"/>
       <c r="G483" s="18"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -8109,7 +8120,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -8121,7 +8132,7 @@
       <c r="F485" s="18"/>
       <c r="G485" s="18"/>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -8133,7 +8144,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8145,7 +8156,7 @@
       <c r="F487" s="18"/>
       <c r="G487" s="18"/>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8157,7 +8168,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8169,7 +8180,7 @@
       <c r="F489" s="18"/>
       <c r="G489" s="18"/>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8181,7 +8192,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8193,7 +8204,7 @@
       <c r="F491" s="18"/>
       <c r="G491" s="18"/>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8205,7 +8216,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8217,7 +8228,7 @@
       <c r="F493" s="18"/>
       <c r="G493" s="18"/>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8229,7 +8240,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8241,7 +8252,7 @@
       <c r="F495" s="18"/>
       <c r="G495" s="18"/>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8253,7 +8264,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8265,7 +8276,7 @@
       <c r="F497" s="18"/>
       <c r="G497" s="18"/>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8277,7 +8288,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8289,7 +8300,7 @@
       <c r="F499" s="18"/>
       <c r="G499" s="18"/>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8301,7 +8312,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8313,7 +8324,7 @@
       <c r="F501" s="18"/>
       <c r="G501" s="18"/>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8325,7 +8336,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8337,7 +8348,7 @@
       <c r="F503" s="18"/>
       <c r="G503" s="18"/>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8349,7 +8360,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8361,7 +8372,7 @@
       <c r="F505" s="18"/>
       <c r="G505" s="18"/>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8373,7 +8384,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8385,7 +8396,7 @@
       <c r="F507" s="18"/>
       <c r="G507" s="18"/>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8397,7 +8408,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8409,7 +8420,7 @@
       <c r="F509" s="18"/>
       <c r="G509" s="18"/>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8421,7 +8432,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8433,7 +8444,7 @@
       <c r="F511" s="18"/>
       <c r="G511" s="18"/>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8445,7 +8456,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8457,7 +8468,7 @@
       <c r="F513" s="18"/>
       <c r="G513" s="18"/>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8469,7 +8480,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8481,7 +8492,7 @@
       <c r="F515" s="18"/>
       <c r="G515" s="18"/>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8493,7 +8504,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8505,7 +8516,7 @@
       <c r="F517" s="18"/>
       <c r="G517" s="18"/>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8517,7 +8528,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8529,7 +8540,7 @@
       <c r="F519" s="18"/>
       <c r="G519" s="18"/>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8541,7 +8552,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8553,7 +8564,7 @@
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8565,7 +8576,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8577,7 +8588,7 @@
       <c r="F523" s="18"/>
       <c r="G523" s="18"/>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8589,7 +8600,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8601,7 +8612,7 @@
       <c r="F525" s="18"/>
       <c r="G525" s="18"/>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8613,7 +8624,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8625,7 +8636,7 @@
       <c r="F527" s="18"/>
       <c r="G527" s="18"/>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8637,7 +8648,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8649,7 +8660,7 @@
       <c r="F529" s="18"/>
       <c r="G529" s="18"/>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8661,7 +8672,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8673,7 +8684,7 @@
       <c r="F531" s="18"/>
       <c r="G531" s="18"/>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8692,28 +8703,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8745,7 +8756,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" hidden="1" customWidth="1"/>
@@ -8753,7 +8764,7 @@
     <col min="4" max="4" width="13.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8767,7 +8778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8785,14 +8796,14 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8800,10 +8811,10 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>4.8611111111111112E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.9444444444444448E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8821,7 +8832,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>180</v>
@@ -8839,7 +8850,7 @@
         <v>0.18055555555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8857,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8875,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
         <v>0</v>
@@ -8889,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
         <v>0</v>
@@ -8903,16 +8914,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.27430555555555558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.2951388888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" s="39"/>
     </row>
   </sheetData>
@@ -9146,6 +9157,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9154,15 +9174,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9185,6 +9196,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9193,12 +9212,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_Temp.xlsx
+++ b/Docs/Journal-de-Travail_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73026E2C-8697-41AC-8271-E4F253127E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CECD9-BB53-4628-BEBA-F1AA53067897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Chore: (DataSelction.cs, Form1.cs) Ajout d'une gestion d'erreur sur la méthode loadFile</t>
+  </si>
+  <si>
+    <t>Doc: (rapport) Mise à jour du point ,3.4, 3 et 2.3</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
                   <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18055555555555555</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2054,7 +2057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2110,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 7 heurs 5 minutes</v>
+        <v>0 jours 7 heurs 15 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2126,11 +2129,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2601,15 +2604,23 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="51"/>
+        <v>44</v>
+      </c>
+      <c r="B25" s="51">
+        <v>45597</v>
+      </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="53">
+        <v>10</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8839,7 +8850,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8847,7 +8858,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>0.18055555555555555</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8920,7 +8931,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.2951388888888889</v>
+        <v>0.30208333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9157,15 +9168,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9174,6 +9176,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9196,14 +9207,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9212,4 +9215,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>